--- a/my-app/TestData/TestData.xlsx
+++ b/my-app/TestData/TestData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="4980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="7185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I14"/>
+  <oleSize ref="A1:J21"/>
 </workbook>
 </file>
 
@@ -459,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/my-app/TestData/TestData.xlsx
+++ b/my-app/TestData/TestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="7185" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="6585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J21"/>
+  <oleSize ref="A1:Q20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Test123</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>joe</t>
-  </si>
-  <si>
-    <t>smith</t>
-  </si>
-  <si>
     <t>userName</t>
   </si>
   <si>
@@ -72,12 +66,6 @@
     <t>smith11@yopmail.com</t>
   </si>
   <si>
-    <t>alex</t>
-  </si>
-  <si>
-    <t>joseph</t>
-  </si>
-  <si>
     <t>alex@test.com</t>
   </si>
   <si>
@@ -87,23 +75,39 @@
     <t>Subscriber_id</t>
   </si>
   <si>
+    <t>vishal</t>
+  </si>
+  <si>
+    <t>jagtap</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Kolwadkar</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>amit111231@test.com</t>
+  </si>
+  <si>
+    <t>vishal12222@test.com</t>
+  </si>
+  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Q3tmAgMveag=</t>
-  </si>
-  <si>
-    <t>adcaawhzqpk=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,10 +152,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -460,29 +465,29 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -492,47 +497,29 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -553,19 +540,19 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -579,71 +566,71 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/my-app/TestData/TestData.xlsx
+++ b/my-app/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="6585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Test123</t>
   </si>
@@ -96,7 +96,10 @@
     <t>amit111231@test.com</t>
   </si>
   <si>
-    <t>vishal12222@test.com</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>vj9090@test.com</t>
   </si>
   <si>
     <t>Fail</t>
@@ -540,7 +543,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +592,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -604,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -630,7 +633,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
